--- a/results/tests.xlsx
+++ b/results/tests.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clee5\Downloads\GS결과\GS_supp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunhe\Desktop\GS\GS결과\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA23E4D-F1DF-4FB8-AA13-F65EA6381C04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BA32A4-E16C-4ACB-AA0E-5A74E26BE202}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="11928" activeTab="2" xr2:uid="{597B4FF6-8389-48F8-9C0D-89097F9B5133}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11930" activeTab="3" xr2:uid="{597B4FF6-8389-48F8-9C0D-89097F9B5133}"/>
   </bookViews>
   <sheets>
-    <sheet name="rice" sheetId="3" r:id="rId1"/>
-    <sheet name="barley" sheetId="1" r:id="rId2"/>
-    <sheet name="maize" sheetId="2" r:id="rId3"/>
+    <sheet name="barley" sheetId="1" r:id="rId1"/>
+    <sheet name="maize" sheetId="2" r:id="rId2"/>
+    <sheet name="44K" sheetId="3" r:id="rId3"/>
     <sheet name="mice" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>phenotype abbreviation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Phenotype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,13 +225,6 @@
     <t>PHD</t>
   </si>
   <si>
-    <t>Plant height divided by days to anthesis FLW fag leaf width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phenotype abbreviation</t>
-  </si>
-  <si>
     <t>FTAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -586,7 +575,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Biochem.Ag</t>
+    <t>Biochem.Age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plant height divided by days to anthesis fag leaf width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phenotype abbreviation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phenotype abbreviation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1060,749 +1062,314 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F3F6CF-195B-4B25-9112-910661130403}">
-  <dimension ref="A1:L32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6B54C0-72B2-4A54-94F6-B0E77E01E695}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.1484375" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.75" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.4140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.9140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.59765625" customWidth="1"/>
-    <col min="11" max="11" width="11.84765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="K1" s="21" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="L1" s="21"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="18" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A3" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="B3" s="7">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.10625</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.89375000000000004</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="9">
+        <v>9.375E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.90625</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C6" s="7">
         <v>0.9916666666666667</v>
       </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7">
-        <v>6.1666666666666668E-2</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.93833333333333335</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.19166666666666668</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.80833333333333335</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7">
-        <v>6.3333333333333339E-2</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.93666666666666665</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.9375</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.94166666666666665</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.10625</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.89375000000000004</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.14374999999999999</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.85624999999999996</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.94166666666666665</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="7">
         <v>0.11666666666666667</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C10" s="7">
         <v>0.8833333333333333</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7">
-        <v>5.5E-2</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.10833333333333334</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.89166666666666672</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="7">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.93</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7">
-        <v>8.666666666666667E-2</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0.91333333333333333</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.95833333333333337</v>
-      </c>
       <c r="D10" s="7">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="7">
-        <v>9.166666666666666E-2</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.90833333333333333</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.98333333333333328</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="7">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.9916666666666667</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A18" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="7">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="7">
-        <v>0</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A20" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A23" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="7">
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="7">
-        <v>9.166666666666666E-2</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.90833333333333333</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A25" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A26" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="7">
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0.98333333333333328</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A27" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="7">
-        <v>9.166666666666666E-2</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0.90833333333333333</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A28" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A29" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="7">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A30" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="7">
-        <v>0.11666666666666667</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A31" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="7">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="7">
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>116</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1816,314 +1383,394 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6B54C0-72B2-4A54-94F6-B0E77E01E695}">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FED34B-FFC0-4CFE-B996-9AB7E2DF6F3A}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.84765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="1.34765625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.84765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1484375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.9140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.6484375" customWidth="1"/>
-    <col min="11" max="11" width="11.84765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
-      <c r="E1" s="1"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="21"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.7">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="14">
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.94166666666666665</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" s="9">
-        <v>0.125</v>
+        <v>4.0909090909090909E-2</v>
       </c>
       <c r="H3" s="9">
-        <v>0.875</v>
+        <v>0.95909090909090911</v>
       </c>
       <c r="I3" s="9">
         <v>0</v>
       </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.89166666666666672</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7">
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.98333333333333328</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="9">
-        <v>0.10625</v>
+        <v>6.363636363636363E-2</v>
       </c>
       <c r="H4" s="9">
-        <v>0.89375000000000004</v>
+        <v>0.9363636363636364</v>
       </c>
       <c r="I4" s="9">
         <v>0</v>
       </c>
+      <c r="J4" s="4"/>
       <c r="K4" s="6" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" s="9">
-        <v>9.375E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H5" s="9">
-        <v>0.90625</v>
+        <v>0.95</v>
       </c>
       <c r="I5" s="9">
         <v>0</v>
       </c>
+      <c r="J5" s="4"/>
       <c r="K5" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="7">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.9916666666666667</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" s="9">
-        <v>6.25E-2</v>
+        <v>6.363636363636363E-2</v>
       </c>
       <c r="H6" s="9">
-        <v>0.9375</v>
+        <v>0.9363636363636364</v>
       </c>
       <c r="I6" s="9">
         <v>0</v>
       </c>
+      <c r="J6" s="4"/>
       <c r="K6" s="6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7">
-        <v>5.8333333333333334E-2</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.94166666666666665</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="G7" s="9">
-        <v>0.10625</v>
+        <v>5.909090909090909E-2</v>
       </c>
       <c r="H7" s="9">
-        <v>0.89375000000000004</v>
+        <v>0.94090909090909092</v>
       </c>
       <c r="I7" s="9">
         <v>0</v>
       </c>
+      <c r="J7" s="4"/>
       <c r="K7" s="6" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7">
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="G8" s="9">
-        <v>0.14374999999999999</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="H8" s="9">
-        <v>0.85624999999999996</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="I8" s="9">
         <v>0</v>
       </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="6" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5.8333333333333334E-2</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.94166666666666665</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B9" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="6" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0.11666666666666667</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="B11" s="12"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2137,393 +1784,748 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FED34B-FFC0-4CFE-B996-9AB7E2DF6F3A}">
-  <dimension ref="A1:L13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F3F6CF-195B-4B25-9112-910661130403}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.6484375" customWidth="1"/>
-    <col min="7" max="7" width="10.1484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.75" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.9140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.6484375" customWidth="1"/>
-    <col min="11" max="11" width="11.84765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.34765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.58203125" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="11"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="K1" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="21"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.7">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="14">
-        <v>5.8333333333333334E-2</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0.94166666666666665</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="9">
-        <v>4.0909090909090909E-2</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0.95909090909090911</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="B3" s="7">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7">
+        <v>6.1666666666666668E-2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.93833333333333335</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
       <c r="K3" s="6" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="14">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.19166666666666668</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.80833333333333335</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="7">
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.93666666666666665</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="7">
         <v>0.10833333333333334</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C6" s="7">
         <v>0.89166666666666672</v>
       </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="9">
-        <v>6.363636363636363E-2</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0.9363636363636364</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7">
         <v>0.05</v>
       </c>
-      <c r="C5" s="14">
+      <c r="H6" s="7">
         <v>0.95</v>
       </c>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="9">
-        <v>6.363636363636363E-2</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.9363636363636364</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="K6" s="6" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="14">
+        <v>63</v>
+      </c>
+      <c r="B7" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="7">
+        <v>8.666666666666667E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.91333333333333333</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="7">
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.90833333333333333</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="7">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="7">
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.90833333333333333</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="7">
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.90833333333333333</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="7">
         <v>0.1</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C28" s="7">
         <v>0.9</v>
       </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5.909090909090909E-2</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0.94090909090909092</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="14">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="9">
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="14">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="14">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="14">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>56</v>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="7">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2541,26 +2543,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959DEF40-7C8A-4617-9085-EBAF0AD76BE2}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.9140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.5" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="2.59765625" customWidth="1"/>
-    <col min="11" max="11" width="11.84765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.1484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.58203125" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2574,45 +2576,45 @@
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
       <c r="K1" s="23" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="L1" s="23"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.7">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="7">
         <v>0.21666666666666667</v>
@@ -2624,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7">
         <v>0.315</v>
@@ -2636,15 +2638,15 @@
         <v>0</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B4" s="7">
         <v>5.8333333333333334E-2</v>
@@ -2656,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7">
         <v>0.3075</v>
@@ -2668,15 +2670,15 @@
         <v>0</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" s="7">
         <v>0.57499999999999996</v>
@@ -2688,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="7">
         <v>0.28999999999999998</v>
@@ -2700,15 +2702,15 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B6" s="7">
         <v>0.55000000000000004</v>
@@ -2720,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7">
         <v>0.14249999999999999</v>
@@ -2732,15 +2734,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B7" s="7">
         <v>0.7</v>
@@ -2752,7 +2754,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7">
         <v>0.21</v>
@@ -2764,15 +2766,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" s="7">
         <v>7.4999999999999997E-2</v>
@@ -2784,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7">
         <v>0.29499999999999998</v>
@@ -2796,15 +2798,15 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B9" s="7">
         <v>0.13333333333333333</v>
@@ -2816,15 +2818,15 @@
         <v>0</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B10" s="7">
         <v>0.15</v>
@@ -2836,15 +2838,15 @@
         <v>0</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B11" s="7">
         <v>8.3333333333333329E-2</v>
@@ -2856,15 +2858,15 @@
         <v>0</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" s="7">
         <v>0.23333333333333334</v>
@@ -2876,15 +2878,15 @@
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" s="7">
         <v>0.2</v>
@@ -2896,15 +2898,15 @@
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" s="7">
         <v>0</v>
@@ -2916,15 +2918,15 @@
         <v>0</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B15" s="7">
         <v>0.41666666666666669</v>
@@ -2936,15 +2938,15 @@
         <v>0</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B16" s="7">
         <v>1.6666666666666666E-2</v>
@@ -2956,15 +2958,15 @@
         <v>0</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B17" s="7">
         <v>0.18333333333333332</v>
@@ -2976,15 +2978,15 @@
         <v>0</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" s="7">
         <v>0.44166666666666665</v>
@@ -2996,15 +2998,15 @@
         <v>0</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B19" s="7">
         <v>0.15</v>
@@ -3016,15 +3018,15 @@
         <v>0</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B20" s="7">
         <v>2.5000000000000001E-2</v>
@@ -3036,15 +3038,15 @@
         <v>0</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B21" s="7">
         <v>0.67500000000000004</v>
@@ -3056,15 +3058,15 @@
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B22" s="7">
         <v>0.31666666666666665</v>
@@ -3076,10 +3078,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3090,5 +3092,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>